--- a/generated_output/temp/us-core-organization.xlsx
+++ b/generated_output/temp/us-core-organization.xlsx
@@ -171,7 +171,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id {[]} {[]}
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -190,7 +190,7 @@
     <t>Organization.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {[]} {[]}
+    <t xml:space="preserve">Meta
 </t>
   </si>
   <si>
@@ -206,7 +206,7 @@
     <t>Organization.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri {[]} {[]}
+    <t xml:space="preserve">uri
 </t>
   </si>
   <si>
@@ -225,7 +225,7 @@
     <t>Organization.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code {[]} {[]}
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
@@ -257,7 +257,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
+    <t xml:space="preserve">Narrative
 </t>
   </si>
   <si>
@@ -283,7 +283,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource {[]} {[]}
+    <t xml:space="preserve">Resource
 </t>
   </si>
   <si>
@@ -309,7 +309,7 @@
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
@@ -344,7 +344,7 @@
     <t>Organization.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
+    <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
@@ -376,7 +376,7 @@
     <t>Organization.identifier.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -441,7 +441,7 @@
     <t>Organization.identifier.type</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
@@ -487,7 +487,7 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://www.acme.com/identifiers/patient"/&gt;</t>
+    <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
     <t>Identifier.system</t>
@@ -514,7 +514,7 @@
     <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="123456"/&gt;</t>
+    <t>123456</t>
   </si>
   <si>
     <t>Identifier.value</t>
@@ -532,7 +532,7 @@
     <t>Organization.identifier.period</t>
   </si>
   <si>
-    <t xml:space="preserve">Period {[]} {[]}
+    <t xml:space="preserve">Period
 </t>
   </si>
   <si>
@@ -557,7 +557,7 @@
     <t>Organization.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}
+    <t xml:space="preserve">Reference(Organization)
 </t>
   </si>
   <si>
@@ -585,7 +585,7 @@
     <t>Organization.active</t>
   </si>
   <si>
-    <t xml:space="preserve">boolean {[]} {[]}
+    <t xml:space="preserve">boolean
 </t>
   </si>
   <si>
@@ -695,7 +695,7 @@
     <t>Organization.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint {[]} {[]}
+    <t xml:space="preserve">ContactPoint
 </t>
   </si>
   <si>
@@ -731,7 +731,7 @@
     <t>Organization.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {[]} {[]}
+    <t xml:space="preserve">Address
 </t>
   </si>
   <si>
@@ -782,7 +782,7 @@
     <t>Allows an appropriate address to be chosen from a list of many.</t>
   </si>
   <si>
-    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="home"/&gt;</t>
+    <t>home</t>
   </si>
   <si>
     <t>The use of an address.</t>
@@ -815,7 +815,7 @@
     <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
   </si>
   <si>
-    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="both"/&gt;</t>
+    <t>both</t>
   </si>
   <si>
     <t>The type of an address (physical / postal).</t>
@@ -845,7 +845,7 @@
     <t>A renderable, unencoded form.</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="137 Nowhere Street, Erewhon 9132"/&gt;</t>
+    <t>137 Nowhere Street, Erewhon 9132</t>
   </si>
   <si>
     <t>Address.text</t>
@@ -869,7 +869,7 @@
     <t>This component contains the house number, apartment number, street name, street direction,  P.O. Box number, delivery hints, and similar address information.</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="137 Nowhere Street"/&gt;</t>
+    <t>137 Nowhere Street</t>
   </si>
   <si>
     <t>Address.line</t>
@@ -897,7 +897,7 @@
     <t>The name of the city, town, suburb, village or other community or delivery center.</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Erewhon"/&gt;</t>
+    <t>Erewhon</t>
   </si>
   <si>
     <t>Address.city</t>
@@ -928,7 +928,7 @@
     <t>District is sometimes known as county, but in some regions 'county' is used in place of city (municipality), so county name should be conveyed in city instead.</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Madison"/&gt;</t>
+    <t>Madison</t>
   </si>
   <si>
     <t>Address.district</t>
@@ -984,7 +984,7 @@
     <t>A postal code designating a region defined by the postal service.</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="9132"/&gt;</t>
+    <t>9132</t>
   </si>
   <si>
     <t>Address.postalCode</t>
@@ -1068,7 +1068,7 @@
     <t>Organization.contact</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement {[]} {[]}
+    <t xml:space="preserve">BackboneElement
 </t>
   </si>
   <si>
@@ -1138,7 +1138,7 @@
     <t>Organization.contact.name</t>
   </si>
   <si>
-    <t xml:space="preserve">HumanName {[]} {[]}
+    <t xml:space="preserve">HumanName
 </t>
   </si>
   <si>
@@ -1196,7 +1196,7 @@
     <t>Organization.endpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Endpoint]]}
+    <t xml:space="preserve">Reference(Endpoint)
 </t>
   </si>
   <si>
@@ -1259,67 +1259,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
   </borders>
